--- a/main.xlsx
+++ b/main.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,6 +970,154 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44508.25639643625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>460</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Screenshot from 2021-10-04 21-57-58.png</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44508.64508063469</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>550</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>450</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Screenshot from 2021-10-29 21-29-38.png</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44508.74712423122</v>
+      </c>
+      <c r="D17" t="n">
+        <v>450</v>
+      </c>
+      <c r="E17" t="n">
+        <v>330</v>
+      </c>
+      <c r="F17" t="n">
+        <v>450</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Screenshot from 2021-11-07 20-31-04.png</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44508.79618372495</v>
+      </c>
+      <c r="D18" t="n">
+        <v>500</v>
+      </c>
+      <c r="E18" t="n">
+        <v>450</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Screenshot from 2021-10-29 21-29-38.png</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/main.xlsx
+++ b/main.xlsx
@@ -491,29 +491,29 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44516.76408064525</v>
+        <v>44517.19233039283</v>
       </c>
       <c r="D2" t="n">
         <v>4500</v>
       </c>
       <c r="E2" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G2" t="n">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Screenshot from 2021-11-08 08-28-52.png</t>
+          <t>Screenshot from 2021-10-04 21-56-33.png</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
